--- a/history-2025-12-30.xlsx
+++ b/history-2025-12-30.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>20:09:16</v>
+        <v>21:00:08</v>
       </c>
       <c r="C2" t="str">
         <v>SFG00964</v>
@@ -496,12 +496,135 @@
         <v/>
       </c>
       <c r="M2" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B3" t="str">
+        <v>20:54:45</v>
+      </c>
+      <c r="C3" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D3" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G3" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I3" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B4" t="str">
+        <v>20:26:49</v>
+      </c>
+      <c r="C4" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D4" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G4" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I4" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B5" t="str">
+        <v>20:09:16</v>
+      </c>
+      <c r="C5" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D5" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G5" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I5" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
         <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-2025-12-30.xlsx
+++ b/history-2025-12-30.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>21:00:08</v>
+        <v>21:14:13</v>
       </c>
       <c r="C2" t="str">
         <v>SFG00964</v>
@@ -504,7 +504,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>20:54:45</v>
+        <v>21:05:37</v>
       </c>
       <c r="C3" t="str">
         <v>SFG00964</v>
@@ -545,7 +545,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>20:26:49</v>
+        <v>21:00:08</v>
       </c>
       <c r="C4" t="str">
         <v>SFG00964</v>
@@ -586,7 +586,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>20:09:16</v>
+        <v>20:54:45</v>
       </c>
       <c r="C5" t="str">
         <v>SFG00964</v>
@@ -619,12 +619,94 @@
         <v/>
       </c>
       <c r="M5" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B6" t="str">
+        <v>20:26:49</v>
+      </c>
+      <c r="C6" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D6" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G6" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I6" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B7" t="str">
+        <v>20:09:16</v>
+      </c>
+      <c r="C7" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D7" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F7" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G7" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H7" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I7" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
         <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-2025-12-30.xlsx
+++ b/history-2025-12-30.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,10 +460,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>21:14:13</v>
+        <v>01:26:00</v>
       </c>
       <c r="C2" t="str">
         <v>SFG00964</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>21:05:37</v>
+        <v>00:41:22</v>
       </c>
       <c r="C3" t="str">
         <v>SFG00964</v>
@@ -516,7 +516,7 @@
         <v>Black / Green</v>
       </c>
       <c r="F3" t="str">
-        <v>1305</v>
+        <v>1320</v>
       </c>
       <c r="G3" t="str">
         <v>917764-1</v>
@@ -525,16 +525,16 @@
         <v>2350223-1</v>
       </c>
       <c r="I3" t="str">
-        <v>W11789514</v>
+        <v>W11539482</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="K3" t="str">
         <v>2350223-1</v>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="M3" t="str">
         <v>ALL_FIELDS_MATCHED</v>
@@ -545,7 +545,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>21:00:08</v>
+        <v>23:46:52</v>
       </c>
       <c r="C4" t="str">
         <v>SFG00964</v>
@@ -586,7 +586,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>20:54:45</v>
+        <v>21:14:13</v>
       </c>
       <c r="C5" t="str">
         <v>SFG00964</v>
@@ -627,7 +627,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>20:26:49</v>
+        <v>21:05:37</v>
       </c>
       <c r="C6" t="str">
         <v>SFG00964</v>
@@ -668,7 +668,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>20:09:16</v>
+        <v>21:00:08</v>
       </c>
       <c r="C7" t="str">
         <v>SFG00964</v>
@@ -704,9 +704,132 @@
         <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B8" t="str">
+        <v>20:54:45</v>
+      </c>
+      <c r="C8" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D8" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G8" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I8" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B9" t="str">
+        <v>20:26:49</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D9" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F9" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G9" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I9" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B10" t="str">
+        <v>20:09:16</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D10" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F10" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G10" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I10" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-2025-12-30.xlsx
+++ b/history-2025-12-30.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>01:26:00</v>
+        <v>03:11:30</v>
       </c>
       <c r="C2" t="str">
         <v>SFG00964</v>
@@ -504,7 +504,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>00:41:22</v>
+        <v>01:26:00</v>
       </c>
       <c r="C3" t="str">
         <v>SFG00964</v>
@@ -516,7 +516,7 @@
         <v>Black / Green</v>
       </c>
       <c r="F3" t="str">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="G3" t="str">
         <v>917764-1</v>
@@ -525,16 +525,16 @@
         <v>2350223-1</v>
       </c>
       <c r="I3" t="str">
-        <v>W11539482</v>
+        <v>W11789514</v>
       </c>
       <c r="J3" t="str">
-        <v>wnny</v>
+        <v/>
       </c>
       <c r="K3" t="str">
         <v>2350223-1</v>
       </c>
       <c r="L3" t="str">
-        <v>wnny</v>
+        <v/>
       </c>
       <c r="M3" t="str">
         <v>ALL_FIELDS_MATCHED</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>23:46:52</v>
+        <v>00:41:22</v>
       </c>
       <c r="C4" t="str">
         <v>SFG00964</v>
@@ -557,7 +557,7 @@
         <v>Black / Green</v>
       </c>
       <c r="F4" t="str">
-        <v>1305</v>
+        <v>1320</v>
       </c>
       <c r="G4" t="str">
         <v>917764-1</v>
@@ -566,16 +566,16 @@
         <v>2350223-1</v>
       </c>
       <c r="I4" t="str">
-        <v>W11789514</v>
+        <v>W11539482</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="K4" t="str">
         <v>2350223-1</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="M4" t="str">
         <v>ALL_FIELDS_MATCHED</v>
@@ -586,7 +586,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>21:14:13</v>
+        <v>23:46:52</v>
       </c>
       <c r="C5" t="str">
         <v>SFG00964</v>
@@ -627,7 +627,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>21:05:37</v>
+        <v>21:14:13</v>
       </c>
       <c r="C6" t="str">
         <v>SFG00964</v>
@@ -668,7 +668,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>21:00:08</v>
+        <v>21:05:37</v>
       </c>
       <c r="C7" t="str">
         <v>SFG00964</v>
@@ -709,7 +709,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B8" t="str">
-        <v>20:54:45</v>
+        <v>21:00:08</v>
       </c>
       <c r="C8" t="str">
         <v>SFG00964</v>
@@ -750,7 +750,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B9" t="str">
-        <v>20:26:49</v>
+        <v>20:54:45</v>
       </c>
       <c r="C9" t="str">
         <v>SFG00964</v>
@@ -791,7 +791,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B10" t="str">
-        <v>20:09:16</v>
+        <v>20:26:49</v>
       </c>
       <c r="C10" t="str">
         <v>SFG00964</v>
@@ -827,9 +827,50 @@
         <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B11" t="str">
+        <v>20:09:16</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D11" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F11" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G11" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H11" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I11" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-2025-12-30.xlsx
+++ b/history-2025-12-30.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>03:11:30</v>
+        <v>03:17:38</v>
       </c>
       <c r="C2" t="str">
         <v>SFG00964</v>
@@ -504,7 +504,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>01:26:00</v>
+        <v>03:11:30</v>
       </c>
       <c r="C3" t="str">
         <v>SFG00964</v>
@@ -545,7 +545,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>00:41:22</v>
+        <v>01:26:00</v>
       </c>
       <c r="C4" t="str">
         <v>SFG00964</v>
@@ -557,7 +557,7 @@
         <v>Black / Green</v>
       </c>
       <c r="F4" t="str">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="G4" t="str">
         <v>917764-1</v>
@@ -566,16 +566,16 @@
         <v>2350223-1</v>
       </c>
       <c r="I4" t="str">
-        <v>W11539482</v>
+        <v>W11789514</v>
       </c>
       <c r="J4" t="str">
-        <v>wnny</v>
+        <v/>
       </c>
       <c r="K4" t="str">
         <v>2350223-1</v>
       </c>
       <c r="L4" t="str">
-        <v>wnny</v>
+        <v/>
       </c>
       <c r="M4" t="str">
         <v>ALL_FIELDS_MATCHED</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>23:46:52</v>
+        <v>00:41:22</v>
       </c>
       <c r="C5" t="str">
         <v>SFG00964</v>
@@ -598,7 +598,7 @@
         <v>Black / Green</v>
       </c>
       <c r="F5" t="str">
-        <v>1305</v>
+        <v>1320</v>
       </c>
       <c r="G5" t="str">
         <v>917764-1</v>
@@ -607,16 +607,16 @@
         <v>2350223-1</v>
       </c>
       <c r="I5" t="str">
-        <v>W11789514</v>
+        <v>W11539482</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="K5" t="str">
         <v>2350223-1</v>
       </c>
       <c r="L5" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="M5" t="str">
         <v>ALL_FIELDS_MATCHED</v>
@@ -627,7 +627,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>21:14:13</v>
+        <v>23:46:52</v>
       </c>
       <c r="C6" t="str">
         <v>SFG00964</v>
@@ -668,7 +668,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>21:05:37</v>
+        <v>21:14:13</v>
       </c>
       <c r="C7" t="str">
         <v>SFG00964</v>
@@ -709,7 +709,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B8" t="str">
-        <v>21:00:08</v>
+        <v>21:05:37</v>
       </c>
       <c r="C8" t="str">
         <v>SFG00964</v>
@@ -750,7 +750,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B9" t="str">
-        <v>20:54:45</v>
+        <v>21:00:08</v>
       </c>
       <c r="C9" t="str">
         <v>SFG00964</v>
@@ -791,7 +791,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B10" t="str">
-        <v>20:26:49</v>
+        <v>20:54:45</v>
       </c>
       <c r="C10" t="str">
         <v>SFG00964</v>
@@ -832,7 +832,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B11" t="str">
-        <v>20:09:16</v>
+        <v>20:26:49</v>
       </c>
       <c r="C11" t="str">
         <v>SFG00964</v>
@@ -868,9 +868,50 @@
         <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B12" t="str">
+        <v>20:09:16</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D12" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G12" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I12" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M12"/>
   </ignoredErrors>
 </worksheet>
 </file>